--- a/scenarios_and_results/Scenario_low_discount_bio_1998_A.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_bio_1998_A.xlsx
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0005141444628689085</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0005141444628689085</v>
       </c>
       <c r="M7">
         <v>0.002474662244202521</v>
@@ -1585,7 +1585,7 @@
         <v>0.07472016766595969</v>
       </c>
       <c r="P7">
-        <v>33.1190670672157</v>
+        <v>40.00000000579551</v>
       </c>
       <c r="Q7">
         <v>0.7850456621004565</v>
@@ -1606,7 +1606,7 @@
         <v>40.00000000000001</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>6.880932938579814</v>
       </c>
       <c r="X7">
         <v>0</v>
